--- a/files/new_yami1.xlsx
+++ b/files/new_yami1.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\for_project_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3491E7E5-38ED-4513-BB4D-5BD5834235FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="2490" windowWidth="14505" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,8 +45,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -115,7 +116,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -133,24 +134,54 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -159,31 +190,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,105 +563,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" min="1" max="1"/>
+    <col width="23" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+    <row r="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="10" t="n"/>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>5월 15일 월요일</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>생활관
+(조식)</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>백미밥</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>김치콩나물국</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>떡갈비마늘조림</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>두부조림</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>상추부추겉절이</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>깍두기</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>일품</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>등심돈까스/치킨까스</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>등촌샤브칼국수&amp;찐만두</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>닭갈비덮밥</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>통살치킨바베큐볶음밥</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>생활관
+(석식)</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>잡곡밥</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>유부장국</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>불닭볶음</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>샐러드우동</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>배추김치</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>요구르트</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>